--- a/Shiny/Dati/Cellulosa_2^3+3.xlsx
+++ b/Shiny/Dati/Cellulosa_2^3+3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camillo\GitHub\DoE_en\Shiny\Dati\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DoE\Shiny\Dati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2531F5F4-EB3A-42FB-B8B9-D5977EC7BBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE57092A-46E4-4A2B-8AB3-370BC1680133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2E980708-8F83-4021-9D11-3BD7DAB051E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E980708-8F83-4021-9D11-3BD7DAB051E1}"/>
   </bookViews>
   <sheets>
     <sheet name="CELLULOSA FFD 2^3" sheetId="1" r:id="rId1"/>
@@ -46,22 +46,22 @@
     <t>x3</t>
   </si>
   <si>
-    <t>HPMC/EC</t>
-  </si>
-  <si>
-    <t>% rilasciata (8h)</t>
-  </si>
-  <si>
     <t>1:3</t>
   </si>
   <si>
     <t>2:3</t>
   </si>
   <si>
-    <t>Tablet weight (mg)</t>
+    <t>Lubricant</t>
   </si>
   <si>
-    <t>Lubricant (%)</t>
+    <t>Rilascio 8h</t>
+  </si>
+  <si>
+    <t>HPMC:EC</t>
+  </si>
+  <si>
+    <t>T.weight</t>
   </si>
 </sst>
 </file>
@@ -369,7 +369,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -516,7 +516,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Peso della compressa (mg): 359; 450</a:t>
+            <a:t>Peso della compressa (Tablet weight, mg): 359; 450</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -552,7 +552,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>ubrificante (%, p/p): 1; 2</a:t>
+            <a:t>ubrificante (Lubricant %, p/p): 1; 2</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -588,7 +588,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>HPMC/EC): 1:3 ; 2:3</a:t>
+            <a:t>HPMC:EC): 1:3 ; 2:3</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -632,7 +632,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -930,17 +930,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89FB80E-F9DF-4E28-A315-62F52D111EF4}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1"/>
-    <col min="6" max="7" width="14.44140625" customWidth="1"/>
+    <col min="2" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -951,19 +955,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>3</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>-1</v>
       </c>
@@ -980,13 +984,13 @@
         <v>1</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G2" s="10">
         <v>38.78</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -1003,13 +1007,13 @@
         <v>1</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G3" s="14">
         <v>32.68</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>-1</v>
       </c>
@@ -1026,13 +1030,13 @@
         <v>2</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G4" s="14">
         <v>41.28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -1049,13 +1053,13 @@
         <v>2</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G5" s="14">
         <v>35.130000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>-1</v>
       </c>
@@ -1072,13 +1076,13 @@
         <v>1</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G6" s="14">
         <v>73.92</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>1</v>
       </c>
@@ -1095,13 +1099,13 @@
         <v>1</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G7" s="14">
         <v>48.6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>-1</v>
       </c>
@@ -1118,13 +1122,13 @@
         <v>2</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G8" s="14">
         <v>72.83</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>1</v>
       </c>
@@ -1141,13 +1145,13 @@
         <v>2</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G9" s="20">
         <v>51.92</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>0</v>
       </c>
@@ -1164,14 +1168,14 @@
         <v>1.5</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G11" s="22">
         <v>37.299999999999997</v>
       </c>
       <c r="I11" s="23"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>0</v>
       </c>
@@ -1188,14 +1192,14 @@
         <v>1.5</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G12" s="25">
         <v>33.229999999999997</v>
       </c>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>0</v>
       </c>
@@ -1212,7 +1216,7 @@
         <v>1.5</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G13" s="27">
         <v>40.61</v>
